--- a/templates/export/trips.xlsx
+++ b/templates/export/trips.xlsx
@@ -75,18 +75,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Report type:</t>
   </si>
   <si>
     <t>Trips</t>
-  </si>
-  <si>
-    <t>Device:</t>
-  </si>
-  <si>
-    <t>${device.deviceName}</t>
   </si>
   <si>
     <t>Group:</t>
@@ -851,7 +845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -861,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" activeCellId="1" sqref="A4 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -927,12 +921,8 @@
       <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="7"/>
@@ -945,10 +935,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -962,10 +952,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -992,84 +982,84 @@
     </row>
     <row r="8" spans="1:14" s="8" customFormat="1" ht="29.25" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="J8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="L8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="M8" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="18.75" customHeight="1">
       <c r="A9" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="J9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="K9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="N9" s="15"/>
     </row>
